--- a/data/cement/factories/clinker_factory-CLC.xlsx
+++ b/data/cement/factories/clinker_factory-CLC.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BlackBlox\data\cement\factories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/cement/factories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0E6388-BC45-8F43-A13F-D8E381E4332D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="465" windowWidth="18720" windowHeight="17535"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="18720" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="10" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="clinker" sheetId="12" r:id="rId3"/>
     <sheet name="CO2" sheetId="13" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -164,7 +165,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -235,8 +236,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -547,16 +548,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -573,7 +574,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -587,7 +588,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -601,7 +602,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -621,19 +622,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -668,7 +669,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -694,7 +695,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -720,7 +721,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -752,21 +753,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="99" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -777,7 +778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -788,7 +789,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -799,7 +800,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>29</v>
       </c>
@@ -810,7 +811,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
       <c r="C5" s="5"/>
     </row>
@@ -820,20 +821,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -844,7 +845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
@@ -855,7 +856,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -866,7 +867,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
@@ -877,7 +878,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="1"/>
       <c r="C5" s="7"/>

--- a/data/cement/factories/clinker_factory-CLC.xlsx
+++ b/data/cement/factories/clinker_factory-CLC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/cement/factories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0E6388-BC45-8F43-A13F-D8E381E4332D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFEE3A0-4E35-C343-B53A-0C4DD0267948}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="460" windowWidth="18720" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="44">
   <si>
     <t>Inflow</t>
   </si>
@@ -153,13 +153,19 @@
     <t>inflows</t>
   </si>
   <si>
-    <t>CO2__emitted</t>
-  </si>
-  <si>
     <t>CCS</t>
   </si>
   <si>
     <t>simple_CLC-capture</t>
+  </si>
+  <si>
+    <t>CO2__fossil</t>
+  </si>
+  <si>
+    <t>CO2__bio</t>
+  </si>
+  <si>
+    <t>CO2__calcination</t>
   </si>
 </sst>
 </file>
@@ -604,7 +610,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
@@ -623,10 +629,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -706,7 +712,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>37</v>
@@ -715,35 +721,87 @@
         <v>38</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F6" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -850,7 +908,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>
